--- a/lab/lab3/mediciones.xlsx
+++ b/lab/lab3/mediciones.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uo293697\Desktop\Algoritmia\lab\lab3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/33b4c814603cc326/Escritorio/uo/2/Algoritmia/lab/lab3/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="55" documentId="11_D1AB676558E5616FE045885D4FAE92713ED153D9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85C0191F-0C91-42AE-906A-D1D69C9C3C99}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" activeTab="4"/>
+    <workbookView xWindow="-21710" yWindow="7020" windowWidth="21820" windowHeight="14620" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,17 +19,28 @@
     <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
     <sheet name="Hoja5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="25">
   <si>
     <t>n</t>
   </si>
@@ -82,15 +94,36 @@
   </si>
   <si>
     <t>Bucle4 Java (Con_opti) t43</t>
+  </si>
+  <si>
+    <t>Complejidad:</t>
+  </si>
+  <si>
+    <t>O(n log2)</t>
+  </si>
+  <si>
+    <t>O(n^2 log n)</t>
+  </si>
+  <si>
+    <t>O(n^3)</t>
+  </si>
+  <si>
+    <t>O(n^2  (log^2)(n))</t>
+  </si>
+  <si>
+    <t>O(n^3log n)</t>
+  </si>
+  <si>
+    <t>O(n^4)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -101,15 +134,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -117,18 +168,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,233 +474,251 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G9"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C4">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C4" s="4">
         <v>10</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <f>79/$C$18</f>
         <v>1.1285714285714286E-2</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <f>101/$C$20</f>
         <v>0.505</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <f>255/200</f>
         <v>1.2749999999999999</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <f>68/50</f>
         <v>1.36</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C5" s="4">
         <v>200</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <f>161/$C$18</f>
         <v>2.3E-2</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <f>360/$C$20</f>
         <v>1.8</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <f>1105/200</f>
         <v>5.5250000000000004</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <f>496/50</f>
         <v>9.92</v>
       </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C6" s="4">
         <v>400</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <f>347/$C$18</f>
         <v>4.9571428571428572E-2</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <f>1638/$C$20</f>
         <v>8.19</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <f>4744/200</f>
         <v>23.72</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C7" s="4">
         <f>2*C6</f>
         <v>800</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <f>813/$C$18</f>
         <v>0.11614285714285714</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <f>6359/$C$20</f>
         <v>31.795000000000002</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>109</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>601</v>
       </c>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C8" s="4">
         <f t="shared" ref="C8:C13" si="0">2*C7</f>
         <v>1600</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <f>1727/$C$18</f>
         <v>0.24671428571428572</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <f>24939/$C$20</f>
         <v>124.69499999999999</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>449</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>4798</v>
       </c>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C9" s="4">
         <f t="shared" si="0"/>
         <v>3200</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <f>3680/$C$18</f>
         <v>0.52571428571428569</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>561</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>1943</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>38010</v>
       </c>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C10" s="4">
         <f t="shared" si="0"/>
         <v>6400</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <f>7836/$C$18</f>
         <v>1.1194285714285714</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>2197</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>8242</v>
       </c>
-      <c r="G10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11">
+      <c r="G10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C11" s="4">
         <f t="shared" si="0"/>
         <v>12800</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <f>17788/$C$18</f>
         <v>2.5411428571428569</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>9853</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>35062</v>
       </c>
-      <c r="G11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12">
+      <c r="G11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C12" s="4">
         <f t="shared" si="0"/>
         <v>25600</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <f>37407/$C$18</f>
         <v>5.3438571428571429</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>44132</v>
       </c>
-      <c r="F12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C13">
+      <c r="F12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C13" s="4">
         <f t="shared" si="0"/>
         <v>51200</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <f>78679/$C$18</f>
         <v>11.239857142857144</v>
       </c>
-      <c r="E13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>1</v>
       </c>
@@ -642,7 +726,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>2</v>
       </c>
@@ -657,176 +741,196 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:F14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="C4:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C5">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C5" s="4">
         <v>10</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <f>1254/200</f>
         <v>6.27</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>91</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>980</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C6">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C6" s="4">
         <v>200</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <f>6829/200</f>
         <v>34.145000000000003</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>826</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>15622</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C7">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C7" s="4">
         <v>400</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>172</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>7197</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C8">
+      <c r="F7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C8" s="4">
         <f>2*C7</f>
         <v>800</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>823</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>63068</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C9">
+      <c r="F8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C9" s="4">
         <f t="shared" ref="C9:C14" si="0">2*C8</f>
         <v>1600</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>3891</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C10">
+      <c r="F9" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C10" s="4">
         <f t="shared" si="0"/>
         <v>3200</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>18309</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C11">
+      <c r="F10" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C11" s="4">
         <f t="shared" si="0"/>
         <v>6400</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C12">
+      <c r="F11" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C12" s="4">
         <f t="shared" si="0"/>
         <v>12800</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C13">
+      <c r="F12" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C13" s="4">
         <f t="shared" si="0"/>
         <v>25600</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C14">
+      <c r="F13" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C14" s="4">
         <f t="shared" si="0"/>
         <v>51200</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>5</v>
+      <c r="F14" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -835,175 +939,189 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:F15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="C5:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C6">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C6" s="4">
         <v>10</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="6">
         <v>1.1285714285714286E-2</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="6">
         <v>0.505</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="6">
         <f>D6/E6</f>
         <v>2.2347949080622348E-2</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C7">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C7" s="4">
         <v>200</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="6">
         <v>2.3E-2</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="6">
         <v>1.8</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="6">
         <f t="shared" ref="F7:F14" si="0">D7/E7</f>
         <v>1.2777777777777777E-2</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C8">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C8" s="4">
         <v>400</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="6">
         <v>4.9571428571428572E-2</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="6">
         <v>8.19</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="6">
         <f t="shared" si="0"/>
         <v>6.0526774812489099E-3</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C9">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C9" s="4">
         <v>800</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="6">
         <v>0.11614285714285714</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="6">
         <v>31.795000000000002</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="6">
         <f t="shared" si="0"/>
         <v>3.6528654550356076E-3</v>
       </c>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C10">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C10" s="4">
         <v>1600</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="6">
         <v>0.24671428571428572</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="6">
         <v>124.69499999999999</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="6">
         <f t="shared" si="0"/>
         <v>1.9785419280186514E-3</v>
       </c>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C11">
+    <row r="11" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C11" s="4">
         <v>3200</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="6">
         <v>0.52571428571428569</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="6">
         <v>561</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="6">
         <f t="shared" si="0"/>
         <v>9.3710211357270179E-4</v>
       </c>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C12">
+    <row r="12" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C12" s="4">
         <v>6400</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="6">
         <v>1.1194285714285714</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="6">
         <v>2197</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="6">
         <f t="shared" si="0"/>
         <v>5.0952597698159831E-4</v>
       </c>
     </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C13">
+    <row r="13" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C13" s="4">
         <v>12800</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="6">
         <v>2.5411428571428569</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="6">
         <v>9853</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="6">
         <f t="shared" si="0"/>
         <v>2.579054965130272E-4</v>
       </c>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C14">
+    <row r="14" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C14" s="4">
         <v>25600</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="6">
         <v>5.3438571428571429</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="6">
         <v>44132</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="6">
         <f t="shared" si="0"/>
         <v>1.2108803459750618E-4</v>
       </c>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C15">
+    <row r="15" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C15" s="4">
         <v>51200</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="6">
         <v>11.239857142857144</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="3"/>
+      <c r="E15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1011,170 +1129,186 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:G17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="D7:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="7" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
+    <row r="7" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D8">
+    <row r="8" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D8" s="4">
         <v>10</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>0.505</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>1.2749999999999999</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <f>F8/E8</f>
         <v>2.5247524752475248</v>
       </c>
     </row>
-    <row r="9" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D9">
+    <row r="9" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D9" s="4">
         <v>200</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>1.8</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>5.5250000000000004</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <f t="shared" ref="G9:G15" si="0">F9/E9</f>
         <v>3.0694444444444446</v>
       </c>
     </row>
-    <row r="10" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D10">
+    <row r="10" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D10" s="4">
         <v>400</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>8.19</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <f>4744/200</f>
         <v>23.72</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <f t="shared" si="0"/>
         <v>2.8962148962148961</v>
       </c>
     </row>
-    <row r="11" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D11">
+    <row r="11" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D11" s="4">
         <v>800</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>31.795000000000002</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>109</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <f t="shared" si="0"/>
         <v>3.4282119830161975</v>
       </c>
     </row>
-    <row r="12" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D12">
+    <row r="12" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D12" s="4">
         <v>1600</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>124.69499999999999</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>449</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <f t="shared" si="0"/>
         <v>3.6007859176390395</v>
       </c>
     </row>
-    <row r="13" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D13">
+    <row r="13" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D13" s="4">
         <v>3200</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>561</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>1943</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <f t="shared" si="0"/>
         <v>3.463458110516934</v>
       </c>
     </row>
-    <row r="14" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D14">
+    <row r="14" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D14" s="4">
         <v>6400</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>2197</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>8242</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <f t="shared" si="0"/>
         <v>3.7514792899408285</v>
       </c>
     </row>
-    <row r="15" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D15">
+    <row r="15" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D15" s="4">
         <v>12800</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>9853</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>35062</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <f t="shared" si="0"/>
         <v>3.5585100984471736</v>
       </c>
     </row>
-    <row r="16" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D16">
+    <row r="16" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D16" s="4">
         <v>25600</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>44132</v>
       </c>
-      <c r="F16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D17">
+      <c r="F16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D17" s="4">
         <v>51200</v>
       </c>
-      <c r="E17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" t="s">
-        <v>5</v>
+      <c r="E17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1183,173 +1317,194 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:H9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="C3:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D3" s="4" t="s">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C4">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C4" s="4">
         <v>200</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>59</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <f>68/50</f>
         <v>1.36</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <f>77/1000</f>
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="2">
         <f>E4/D4</f>
         <v>2.305084745762712E-2</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2">
         <f>F4/E4</f>
         <v>5.6617647058823523E-2</v>
       </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C5">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C5" s="4">
         <f>C4*2</f>
         <v>400</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>422</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <f>496/50</f>
         <v>9.92</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <f>297/1000</f>
         <v>0.29699999999999999</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="2">
         <f t="shared" ref="G5:G7" si="0">E5/D5</f>
         <v>2.3507109004739336E-2</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="2">
         <f t="shared" ref="H5:H9" si="1">F5/E5</f>
         <v>2.9939516129032256E-2</v>
       </c>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C6">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C6" s="4">
         <f t="shared" ref="C6:C9" si="2">C5*2</f>
         <v>800</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>3603</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>80</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <f>1350/1000</f>
         <v>1.35</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <f t="shared" si="0"/>
         <v>2.2203719122953096E-2</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
         <f t="shared" si="1"/>
         <v>1.6875000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C7">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C7" s="4">
         <f t="shared" si="2"/>
         <v>1600</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>26917</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>601</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <f>25472/1000</f>
         <v>25.472000000000001</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="2">
         <f t="shared" si="0"/>
         <v>2.2327896868150239E-2</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="2">
         <f t="shared" si="1"/>
         <v>4.2382695507487522E-2</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C8">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C8" s="4">
         <f t="shared" si="2"/>
         <v>3200</v>
       </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8">
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1">
         <v>4798</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <f>54721/500</f>
         <v>109.44199999999999</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2">
         <f t="shared" si="1"/>
         <v>2.2809920800333471E-2</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C9">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C9" s="4">
         <f t="shared" si="2"/>
         <v>6400</v>
       </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9">
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1">
         <v>38010</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>476</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2">
         <f t="shared" si="1"/>
         <v>1.2523020257826888E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
